--- a/backend/goods.xlsx
+++ b/backend/goods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/indmaksim/workspace/tender_search/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF03BCF8-1737-A64C-890E-C4EA118F7CCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EBE921-ED92-2C40-AAA4-7EA151317291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="500" windowWidth="27840" windowHeight="17060" xr2:uid="{0CBFCD86-52A1-FF4E-A3B0-EFAC35D487B6}"/>
   </bookViews>
@@ -33,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Наменование</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Polaris PUF 12 настольный вентилятор</t>
   </si>
@@ -427,116 +421,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E44A743-BD1D-0E41-B60E-C933B98FA2FE}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1165186</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1171595</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1171606</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1171636</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1171661</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1160299</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1160372</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1160533</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1160540</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1171795</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1171797</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1171806</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
